--- a/LANDSCAPE-latest/interactions.xlsx
+++ b/LANDSCAPE-latest/interactions.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DevelopmentWorkspaces\gitProjects\d3-examples\LANDSCAPE-latest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA9006-6FF3-4C8D-B36C-91371C613DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>dataRetention</t>
   </si>
@@ -84,13 +89,43 @@
   </si>
   <si>
     <t>Manual trigger from WLS</t>
+  </si>
+  <si>
+    <t>Oracle Golden gate</t>
+  </si>
+  <si>
+    <t>Sendings dat from AFLS for reporting</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>Data Stored in GCSS DB</t>
+  </si>
+  <si>
+    <t>XML Message</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>OD3CP</t>
+  </si>
+  <si>
+    <t>Request/Reply</t>
+  </si>
+  <si>
+    <t>MQ trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event triggered </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -115,110 +150,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -526,32 +468,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63d77bf5-1170-4561-b246-01ae6536a4c8}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D77BF5-1170-4561-B246-01AE6536A4C8}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.714285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.714285714285715" customWidth="1"/>
-    <col min="4" max="4" width="6.428571428571429" customWidth="1"/>
-    <col min="5" max="5" width="4.857142857142857" customWidth="1"/>
-    <col min="6" max="6" width="18.857142857142858" customWidth="1"/>
-    <col min="7" max="7" width="17.857142857142858" customWidth="1"/>
-    <col min="8" max="8" width="20.571428571428573" customWidth="1"/>
-    <col min="9" max="9" width="14.142857142857142" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="6.857142857142857" customWidth="1"/>
-    <col min="13" max="13" width="12.857142857142858" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="11.714285714285714" customWidth="1"/>
-    <col min="16" max="16" width="21.857142857142858" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -649,6 +593,106 @@
       </c>
       <c r="P2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
